--- a/public/dist/shotram_products_importing_excel_templete.xlsx
+++ b/public/dist/shotram_products_importing_excel_templete.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB507862-93DB-4E22-8397-C8E6E869EA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FE60BD-BCFB-4180-A9C0-FCAD683A8D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>owner_id</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>money_unit</t>
-  </si>
-  <si>
-    <t>total</t>
   </si>
   <si>
     <t>notification</t>
@@ -462,25 +459,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A2" sqref="A2:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -497,14 +493,14 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -512,16 +508,13 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>19</v>
@@ -530,34 +523,221 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
       <c r="F2">
         <v>25</v>
       </c>
       <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>1200</v>
+      </c>
+      <c r="K2" s="2">
+        <v>46140</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="J2">
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
         <v>1000</v>
       </c>
-      <c r="K2">
+      <c r="J3">
         <v>1200</v>
       </c>
-      <c r="L2" s="2">
-        <v>46140</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
+      <c r="K3" s="2">
+        <v>46141</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+      <c r="J4">
+        <v>1200</v>
+      </c>
+      <c r="K4" s="2">
+        <v>46142</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5">
+        <v>1200</v>
+      </c>
+      <c r="K5" s="2">
+        <v>46143</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="J6">
+        <v>1200</v>
+      </c>
+      <c r="K6" s="2">
+        <v>46144</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+      <c r="J7">
+        <v>1200</v>
+      </c>
+      <c r="K7" s="2">
+        <v>46145</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/public/dist/shotram_products_importing_excel_templete.xlsx
+++ b/public/dist/shotram_products_importing_excel_templete.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FE60BD-BCFB-4180-A9C0-FCAD683A8D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD8AFC6-BA2E-40AD-B6F1-12C8F1BA5B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>owner_id</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Ubazi wa Kushoto</t>
+  </si>
+  <si>
+    <t>isTaxable</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M7"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,10 +474,10 @@
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="10" max="10" width="22.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="12" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -511,8 +514,11 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -550,7 +556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -587,8 +593,11 @@
       <c r="L3" t="s">
         <v>16</v>
       </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -625,8 +634,11 @@
       <c r="L4" t="s">
         <v>16</v>
       </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -664,7 +676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -702,7 +714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
